--- a/PBL5_Final/dethidoc.xlsx
+++ b/PBL5_Final/dethidoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5_Final\PBL5_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23332099-9CCA-4CB5-8D6E-F94AAB03EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160AC340-EA80-4487-B73D-0794BD0C27EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{881681E5-8E94-4350-AAAB-D3E98294C47F}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>質問 インターネットで、 「中野コーヒー」 から100グラム400円のコーヒーを500グラム 買いたいです。 いくらになりますか</t>
-  </si>
-  <si>
     <t>つぎの文章を読んで、 質問に答えてください。 答えは1・2・3・4からいちばんいいものを
 一つえらんでください。</t>
   </si>
@@ -177,9 +174,6 @@
     <t>つぎの文章を読んで、質問に答えてください。 答えは1・2・3・4から、 いちばんいいものを 一つえらんでください。</t>
   </si>
   <si>
-    <t>質問 日本では、引っ越しをしたとき、 どんな習慣がありますか。</t>
-  </si>
-  <si>
     <t>小さな物を持って近所にあいさつする。</t>
   </si>
   <si>
@@ -196,13 +190,83 @@
   </si>
   <si>
     <t>\PBL5_Final\PBL5_Final\3.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>質問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 日本では、引っ越しをしたとき、 どんな習慣がありますか。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>質問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> インターネットで、 「</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中野コーヒー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」 から100グラム400円のコーヒーを500グラム 買いたいです。 いくらになりますか</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +279,32 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,6 +354,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +675,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -625,7 +719,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -771,25 +865,25 @@
     </row>
     <row r="7" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -800,25 +894,25 @@
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -829,5 +923,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>